--- a/Tools/Excel/Basic/2. Entry.xlsx
+++ b/Tools/Excel/Basic/2. Entry.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Practice\Business-Intelligence\Tools\Excel\Basic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEA4C83-E236-4BE0-98B0-EECD65293717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA23FCA-08A8-477E-93A2-E957CF69E2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8069B8C1-646D-4ED3-97FF-2F30DC548B45}"/>
   </bookViews>
@@ -21,12 +21,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>Passionfruit</t>
   </si>
@@ -191,6 +202,9 @@
   </si>
   <si>
     <t>Holding ctrl+shift and then scroll to left and right</t>
+  </si>
+  <si>
+    <t>Blank Handling: Ctrl+A --&gt; Find&amp;Select --&gt; Go to special --&gt; blank --&gt; write a value in formula bar --&gt; click ctrl+enter to fill all blank cells</t>
   </si>
 </sst>
 </file>
@@ -212,7 +226,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,6 +245,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -244,12 +264,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -268,9 +289,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -308,7 +329,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -414,7 +435,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -556,7 +577,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -564,11 +585,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A34DE9-DB1D-4646-A35E-41A0D9A016E2}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1085,6 +1106,11 @@
     <row r="51" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F51" s="1" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F53" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
